--- a/複本 Excel.xlsx
+++ b/複本 Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHUser\Desktop\MQTTTra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{053C2F5A-4234-438A-BC5F-13D4B7435C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5293A269-5EBB-4454-BF69-5AB99C5B4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCB4D98-B43B-4D0B-B970-79DF0D0F3BA8}"/>
+    <workbookView xWindow="9750" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCB4D98-B43B-4D0B-B970-79DF0D0F3BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>57"庫</t>
   </si>
@@ -81,152 +81,275 @@
   </si>
   <si>
     <t>成特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材料特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57"特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特逾品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待配對</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原物料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>素玻璃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包材區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品/半成品_ENG區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品/半成品_SPL/MRB區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sheet-Cut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材料ENG區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品零散板區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>半成品零散板區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>現在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精簡後</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Json欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PPT頁數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原物料區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原物料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待配對</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收貨待驗區-貨物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收待</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收貨待驗</t>
   </si>
   <si>
     <t>UI(次頁內)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品/半成品_庫存區 |</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品/半成品_庫存區 ||</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB 1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FA0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FA1041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC2031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC2052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC2051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FB1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FA1051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域編碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC1041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1FC1051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特</t>
+    </r>
+  </si>
+  <si>
+    <t>實驗材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待驗材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/21異動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -249,14 +372,69 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +464,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -312,56 +512,271 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="中等" xfId="1" builtinId="28"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="備註" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,6 +789,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3051463</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>125875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6682DF62-433F-55C6-B89C-C9F8B73084C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4956463" y="2977862"/>
+          <a:ext cx="11495809" cy="6309331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,22 +1163,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC24254-2537-400C-B88F-DA5A09625DC7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="13.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -724,275 +1204,444 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>22</v>
       </c>
+      <c r="G2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>17</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>23</v>
       </c>
+      <c r="G4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>18</v>
       </c>
+      <c r="G6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>15</v>
       </c>
+      <c r="G7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>25</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>13</v>
       </c>
+      <c r="G9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>20</v>
       </c>
+      <c r="G10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>14</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>16</v>
       </c>
+      <c r="G12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>21</v>
       </c>
+      <c r="G13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>12</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="G1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/複本 Excel.xlsx
+++ b/複本 Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHUser\Desktop\MQTTTra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5293A269-5EBB-4454-BF69-5AB99C5B4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C309C-E758-4BD0-A010-05C384090B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCB4D98-B43B-4D0B-B970-79DF0D0F3BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCB4D98-B43B-4D0B-B970-79DF0D0F3BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1FB 1021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>03/21異動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚無規劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -680,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +759,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,14 +777,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -841,6 +853,66 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>829235</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="箭號: 向下 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7521ACD-2BE8-54E5-3D20-C07E508DCC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12259235" y="6970060"/>
+          <a:ext cx="515471" cy="493058"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1166,7 +1238,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1207,16 +1279,16 @@
       <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="G1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1238,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1268,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1300,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1314,8 +1386,8 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>70</v>
+      <c r="B5" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -1326,11 +1398,11 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
+      <c r="F5" s="30">
+        <v>14</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1360,10 +1432,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1376,8 +1448,8 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>71</v>
+      <c r="B7" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -1392,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1422,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1452,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1522,11 +1594,11 @@
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6">
-        <v>14</v>
+      <c r="F11" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1556,10 +1628,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1588,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1602,8 +1674,8 @@
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>72</v>
+      <c r="B14" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
@@ -1618,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -1632,8 +1704,8 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>73</v>
+      <c r="B16" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/複本 Excel.xlsx
+++ b/複本 Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHUser\Desktop\MQTTTra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C309C-E758-4BD0-A010-05C384090B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9280A05-AA81-47A6-9FBE-D525F1162002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCB4D98-B43B-4D0B-B970-79DF0D0F3BA8}"/>
   </bookViews>
@@ -191,10 +191,6 @@
     <t>收貨待驗</t>
   </si>
   <si>
-    <t>UI(次頁內)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>尚無規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI餅圖(次頁內)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,6 +768,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,12 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,66 +853,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>829235</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="箭號: 向下 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7521ACD-2BE8-54E5-3D20-C07E508DCC33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12259235" y="6970060"/>
-          <a:ext cx="515471" cy="493058"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1238,7 +1178,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1211,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1279,16 +1219,16 @@
       <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1310,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1328,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -1340,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1372,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1387,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -1398,11 +1338,11 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>14</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1420,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -1432,10 +1372,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1449,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -1464,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1494,7 +1434,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1524,28 +1464,28 @@
         <v>13</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1568,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1594,11 +1534,11 @@
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>73</v>
+      <c r="F11" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1628,10 +1568,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1654,13 +1594,13 @@
         <v>39</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="6">
         <v>21</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1675,7 +1615,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
@@ -1690,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -1705,7 +1645,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
